--- a/ALARMS.xlsx
+++ b/ALARMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navantiaaus-my.sharepoint.com/personal/jhowarth_navantia_com_au/Documents/UTS HACKATHON/Diesel Engine (DE)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reape\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{37AD5B4B-C91A-4B35-A5FC-009EB03B16CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202A8D63-5C21-4D88-82C2-DA2F07D05CF0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95095020-636B-41B0-ADB4-A33DCDD18B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="630" windowWidth="25305" windowHeight="19950" xr2:uid="{D2763B2C-106E-4BC6-A86B-74A0757BBFF7}"/>
+    <workbookView xWindow="2520" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="237" xr2:uid="{D2763B2C-106E-4BC6-A86B-74A0757BBFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="352">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1050,6 +1050,51 @@
   </si>
   <si>
     <t>ALARM_ID</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>0, 2, 3</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>0, 1, 4</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>0, 1, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>0, 1, 3, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>3, 4, 5</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Causes</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1113,11 +1158,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,6 +1181,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,9 +1203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1184,7 +1243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1290,7 +1349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1432,7 +1491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1440,21 +1499,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A05B37-7F2F-43DA-BA99-6FDB105B33F1}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -1464,8 +1522,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1475,8 +1536,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1486,8 +1550,11 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1508,8 +1578,11 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1519,8 +1592,11 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1530,8 +1606,11 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1541,8 +1620,11 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1552,8 +1634,11 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1563,8 +1648,11 @@
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1574,8 +1662,11 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -1585,8 +1676,11 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1596,8 +1690,11 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1607,8 +1704,11 @@
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1618,8 +1718,11 @@
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1629,8 +1732,11 @@
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1640,8 +1746,11 @@
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1651,8 +1760,11 @@
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1662,8 +1774,11 @@
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1673,8 +1788,11 @@
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1684,8 +1802,11 @@
       <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1695,8 +1816,11 @@
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1706,8 +1830,11 @@
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1717,8 +1844,11 @@
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1728,8 +1858,11 @@
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -1739,8 +1872,11 @@
       <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -1750,8 +1886,11 @@
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1761,8 +1900,11 @@
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1772,8 +1914,11 @@
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -1783,8 +1928,11 @@
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -1794,8 +1942,11 @@
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1805,8 +1956,11 @@
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -1816,8 +1970,11 @@
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1827,8 +1984,11 @@
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1838,8 +1998,11 @@
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1849,8 +2012,11 @@
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1860,8 +2026,11 @@
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1871,8 +2040,11 @@
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -1882,8 +2054,11 @@
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1893,8 +2068,11 @@
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -1904,8 +2082,11 @@
       <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -1915,8 +2096,11 @@
       <c r="C42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
@@ -1926,8 +2110,11 @@
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -1937,8 +2124,11 @@
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
@@ -1948,8 +2138,11 @@
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -1959,8 +2152,11 @@
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -1970,8 +2166,11 @@
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>100</v>
       </c>
@@ -1981,8 +2180,11 @@
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -1992,8 +2194,11 @@
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -2003,8 +2208,11 @@
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -2014,8 +2222,11 @@
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2025,8 +2236,11 @@
       <c r="C52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -2036,8 +2250,11 @@
       <c r="C53" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2047,8 +2264,11 @@
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>335</v>
       </c>
@@ -2058,8 +2278,11 @@
       <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>116</v>
       </c>
@@ -2069,8 +2292,11 @@
       <c r="C56" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
@@ -2080,8 +2306,11 @@
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>118</v>
       </c>
@@ -2091,8 +2320,11 @@
       <c r="C58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>119</v>
       </c>
@@ -2102,8 +2334,11 @@
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -2113,8 +2348,11 @@
       <c r="C60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -2124,8 +2362,11 @@
       <c r="C61" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -2135,8 +2376,11 @@
       <c r="C62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>123</v>
       </c>
@@ -2146,8 +2390,11 @@
       <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -2157,8 +2404,11 @@
       <c r="C64" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
@@ -2168,8 +2418,11 @@
       <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -2179,8 +2432,11 @@
       <c r="C66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
@@ -2190,8 +2446,11 @@
       <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -2201,8 +2460,11 @@
       <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>129</v>
       </c>
@@ -2212,8 +2474,11 @@
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -2223,8 +2488,11 @@
       <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>131</v>
       </c>
@@ -2234,8 +2502,11 @@
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -2245,8 +2516,11 @@
       <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>133</v>
       </c>
@@ -2256,8 +2530,11 @@
       <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -2267,8 +2544,11 @@
       <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -2278,8 +2558,11 @@
       <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -2289,8 +2572,11 @@
       <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>137</v>
       </c>
@@ -2300,8 +2586,11 @@
       <c r="C77" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>138</v>
       </c>
@@ -2311,8 +2600,11 @@
       <c r="C78" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>139</v>
       </c>
@@ -2322,8 +2614,11 @@
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>140</v>
       </c>
@@ -2333,8 +2628,11 @@
       <c r="C80" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -2344,8 +2642,11 @@
       <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -2355,8 +2656,11 @@
       <c r="C82" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>143</v>
       </c>
@@ -2366,8 +2670,11 @@
       <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -2377,8 +2684,11 @@
       <c r="C84" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
@@ -2388,8 +2698,11 @@
       <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -2399,8 +2712,11 @@
       <c r="C86" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>147</v>
       </c>
@@ -2410,8 +2726,11 @@
       <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -2421,8 +2740,11 @@
       <c r="C88" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -2432,8 +2754,11 @@
       <c r="C89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>150</v>
       </c>
@@ -2443,8 +2768,11 @@
       <c r="C90" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>151</v>
       </c>
@@ -2454,8 +2782,11 @@
       <c r="C91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>152</v>
       </c>
@@ -2465,8 +2796,11 @@
       <c r="C92" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>153</v>
       </c>
@@ -2476,8 +2810,11 @@
       <c r="C93" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>154</v>
       </c>
@@ -2487,8 +2824,11 @@
       <c r="C94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>155</v>
       </c>
@@ -2498,8 +2838,11 @@
       <c r="C95" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>156</v>
       </c>
@@ -2509,8 +2852,11 @@
       <c r="C96" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>157</v>
       </c>
@@ -2520,8 +2866,11 @@
       <c r="C97" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>158</v>
       </c>
@@ -2531,8 +2880,11 @@
       <c r="C98" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>159</v>
       </c>
@@ -2542,8 +2894,11 @@
       <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
@@ -2553,8 +2908,11 @@
       <c r="C100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>161</v>
       </c>
@@ -2564,8 +2922,11 @@
       <c r="C101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -2575,8 +2936,11 @@
       <c r="C102" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>163</v>
       </c>
@@ -2586,8 +2950,11 @@
       <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>164</v>
       </c>
@@ -2597,8 +2964,11 @@
       <c r="C104" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>165</v>
       </c>
@@ -2608,8 +2978,11 @@
       <c r="C105" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>166</v>
       </c>
@@ -2619,8 +2992,11 @@
       <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
@@ -2630,8 +3006,11 @@
       <c r="C107" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>168</v>
       </c>
@@ -2641,8 +3020,11 @@
       <c r="C108" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>169</v>
       </c>
@@ -2652,8 +3034,11 @@
       <c r="C109" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
@@ -2663,8 +3048,11 @@
       <c r="C110" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>171</v>
       </c>
@@ -2674,8 +3062,11 @@
       <c r="C111" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>172</v>
       </c>
@@ -2685,8 +3076,11 @@
       <c r="C112" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
@@ -2696,8 +3090,11 @@
       <c r="C113" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>174</v>
       </c>
@@ -2707,8 +3104,11 @@
       <c r="C114" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>175</v>
       </c>
@@ -2718,8 +3118,11 @@
       <c r="C115" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>176</v>
       </c>
@@ -2729,8 +3132,11 @@
       <c r="C116" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>177</v>
       </c>
@@ -2740,8 +3146,11 @@
       <c r="C117" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>178</v>
       </c>
@@ -2751,8 +3160,11 @@
       <c r="C118" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>179</v>
       </c>
@@ -2762,8 +3174,11 @@
       <c r="C119" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>180</v>
       </c>
@@ -2773,8 +3188,11 @@
       <c r="C120" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>181</v>
       </c>
@@ -2784,8 +3202,11 @@
       <c r="C121" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>182</v>
       </c>
@@ -2795,8 +3216,11 @@
       <c r="C122" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>183</v>
       </c>
@@ -2806,8 +3230,11 @@
       <c r="C123" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>184</v>
       </c>
@@ -2817,8 +3244,11 @@
       <c r="C124" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>185</v>
       </c>
@@ -2828,8 +3258,11 @@
       <c r="C125" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>186</v>
       </c>
@@ -2839,8 +3272,11 @@
       <c r="C126" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>187</v>
       </c>
@@ -2850,8 +3286,11 @@
       <c r="C127" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>188</v>
       </c>
@@ -2861,8 +3300,11 @@
       <c r="C128" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>189</v>
       </c>
@@ -2872,8 +3314,11 @@
       <c r="C129" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>190</v>
       </c>
@@ -2883,8 +3328,11 @@
       <c r="C130" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>191</v>
       </c>
@@ -2894,8 +3342,11 @@
       <c r="C131" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -2905,8 +3356,11 @@
       <c r="C132" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>193</v>
       </c>
@@ -2916,8 +3370,11 @@
       <c r="C133" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
@@ -2927,8 +3384,11 @@
       <c r="C134" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>195</v>
       </c>
@@ -2938,8 +3398,11 @@
       <c r="C135" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
@@ -2949,8 +3412,11 @@
       <c r="C136" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>281</v>
       </c>
@@ -2960,8 +3426,11 @@
       <c r="C137" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
@@ -2971,8 +3440,11 @@
       <c r="C138" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>283</v>
       </c>
@@ -2982,8 +3454,11 @@
       <c r="C139" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>284</v>
       </c>
@@ -2993,8 +3468,11 @@
       <c r="C140" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>285</v>
       </c>
@@ -3004,8 +3482,11 @@
       <c r="C141" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>281</v>
       </c>
@@ -3015,8 +3496,11 @@
       <c r="C142" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
@@ -3026,8 +3510,11 @@
       <c r="C143" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>283</v>
       </c>
@@ -3037,8 +3524,11 @@
       <c r="C144" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>284</v>
       </c>
@@ -3048,8 +3538,11 @@
       <c r="C145" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>285</v>
       </c>
@@ -3059,8 +3552,11 @@
       <c r="C146" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>286</v>
       </c>
@@ -3070,8 +3566,11 @@
       <c r="C147" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>287</v>
       </c>
@@ -3081,8 +3580,11 @@
       <c r="C148" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>288</v>
       </c>
@@ -3092,8 +3594,11 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>289</v>
       </c>
@@ -3103,8 +3608,11 @@
       <c r="C150" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>290</v>
       </c>
@@ -3114,8 +3622,11 @@
       <c r="C151" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>291</v>
       </c>
@@ -3125,8 +3636,11 @@
       <c r="C152" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>292</v>
       </c>
@@ -3136,8 +3650,11 @@
       <c r="C153" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>293</v>
       </c>
@@ -3147,8 +3664,11 @@
       <c r="C154" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>294</v>
       </c>
@@ -3158,8 +3678,11 @@
       <c r="C155" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>303</v>
       </c>
@@ -3169,8 +3692,11 @@
       <c r="C156" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>304</v>
       </c>
@@ -3180,8 +3706,11 @@
       <c r="C157" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>305</v>
       </c>
@@ -3191,8 +3720,11 @@
       <c r="C158" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>306</v>
       </c>
@@ -3202,8 +3734,11 @@
       <c r="C159" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>307</v>
       </c>
@@ -3213,8 +3748,11 @@
       <c r="C160" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>308</v>
       </c>
@@ -3224,8 +3762,11 @@
       <c r="C161" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>309</v>
       </c>
@@ -3235,8 +3776,11 @@
       <c r="C162" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>310</v>
       </c>
@@ -3246,8 +3790,11 @@
       <c r="C163" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>311</v>
       </c>
@@ -3257,8 +3804,11 @@
       <c r="C164" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>312</v>
       </c>
@@ -3268,8 +3818,11 @@
       <c r="C165" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>313</v>
       </c>
@@ -3279,8 +3832,11 @@
       <c r="C166" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>314</v>
       </c>
@@ -3290,8 +3846,11 @@
       <c r="C167" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>315</v>
       </c>
@@ -3301,8 +3860,11 @@
       <c r="C168" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>316</v>
       </c>
@@ -3312,8 +3874,11 @@
       <c r="C169" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>317</v>
       </c>
@@ -3323,8 +3888,11 @@
       <c r="C170" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>318</v>
       </c>
@@ -3334,8 +3902,11 @@
       <c r="C171" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>319</v>
       </c>
@@ -3345,8 +3916,11 @@
       <c r="C172" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>320</v>
       </c>
@@ -3355,6 +3929,9 @@
       </c>
       <c r="C173" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
